--- a/system/library/purpletree_multivendor/export/PurpletreePoductExport.xlsx
+++ b/system/library/purpletree_multivendor/export/PurpletreePoductExport.xlsx
@@ -1,55 +1,415 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
+    <sheet name="General" sheetId="1" r:id="rId4"/>
+    <sheet name="Data" sheetId="2" r:id="rId5"/>
+    <sheet name="Links" sheetId="3" r:id="rId6"/>
+    <sheet name="Attribute" sheetId="4" r:id="rId7"/>
+    <sheet name="Recurring" sheetId="5" r:id="rId8"/>
+    <sheet name="Discount" sheetId="6" r:id="rId9"/>
+    <sheet name="Special" sheetId="7" r:id="rId10"/>
+    <sheet name="Image" sheetId="8" r:id="rId11"/>
+    <sheet name="Rewardpoints" sheetId="9" r:id="rId12"/>
+    <sheet name="SEO" sheetId="10" r:id="rId13"/>
+    <sheet name="Design" sheetId="11" r:id="rId14"/>
+    <sheet name="ProductOption" sheetId="12" r:id="rId15"/>
+    <sheet name="ProductOptionValue" sheetId="13" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>meta_title</t>
+  </si>
+  <si>
+    <t>meta_description</t>
+  </si>
+  <si>
+    <t>meta_keyword</t>
+  </si>
+  <si>
+    <t>is_approved</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(77, 81, 86); font-family: arial, sans-serif; font-size: 14px;"&gt;Dynamic-link library is Microsoft's implementation of the shared library concept in the Microsoft Windows and OS/2 operating systems. These libraries usually have the file extension DLL, OCX, or DRV.&lt;/span&gt;&lt;span style="color: rgb(77, 81, 86); font-family: arial, sans-serif; font-size: 14px;"&gt;&amp;nbsp;&lt;a class="ruhjFe NJLBac fl" href="https://en.wikipedia.org/wiki/Dynamic-link_library" data-ved="2ahUKEwii9ZWu4P35AhUfzjgGHRJtDy8QmhN6BAhbEAI" ping="/url?sa=t&amp;amp;source=web&amp;amp;rct=j&amp;amp;url=https://en.wikipedia.org/wiki/Dynamic-link_library&amp;amp;ved=2ahUKEwii9ZWu4P35AhUfzjgGHRJtDy8QmhN6BAhbEAI" style="color: rgb(26, 13, 171); -webkit-tap-highlight-color: rgba(0, 0, 0, 0.1); white-space: nowrap; outline: 0px;"&gt;Wikipedia&lt;/a&gt;&lt;/span&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>laptop, computer</t>
+  </si>
+  <si>
+    <t>Dynamic-link library is Microsoft's implementation of the shared library concept in the Microsoft Windows and OS/2 operating systems. These libraries usually have the file extension DLL, OCX, or DRV. Wikipedia</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Oneplus 10 pro</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Technology -GSM-CDMA-LTE-5G&lt;/p&gt;&lt;p&gt;Sim-Dual sim&lt;/p&gt;&lt;p&gt; MEMORY -12 GB RAM,256 ROM&lt;/p&gt;&lt;p&gt;GPU- Andreno 730&lt;/p&gt;&lt;p&gt;battery - 5500&lt;/p&gt;&lt;p&gt;price -60,000&lt;/p&gt;&lt;p&gt;CAMERA - 20 MP front,48 MP Back with 6 MP ultra mode,4 MP macro&amp;nbsp;&lt;/p&gt;&lt;p&gt;LED Display&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Android mobile</t>
+  </si>
+  <si>
+    <t>Oneplus 10 pro mobile</t>
+  </si>
+  <si>
+    <t>Boat Rockerz 450 Bluetooth Earphone</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Standby Time - 200 hour&lt;/p&gt;&lt;p&gt;Driver size -35mm&lt;/p&gt;&lt;p&gt;Headphone type - Ear&lt;/p&gt;&lt;p&gt;Bluetooth range - 15M&lt;/p&gt;&lt;p&gt;Bluetooth Version - V4.3&lt;/p&gt;&lt;p&gt;Frequency Response - 25Hz -25KHz&lt;/p&gt;&lt;p&gt;Price -1,599&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Boat rockerz 450 Bluetooth Earphone</t>
+  </si>
+  <si>
+    <t>Apple A13 4G</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Processor - Bionic&lt;/p&gt;&lt;p&gt;OS - iOS v12.0&lt;/p&gt;&lt;p&gt;Camera -12 +10+10 MP Real Camera , 10 MP Front Camera&lt;/p&gt;&lt;p&gt;5.6 Inch OLED display&lt;/p&gt;&lt;p&gt;RAM- 6 GB&lt;/p&gt;&lt;p&gt;ROM - 64 GB&lt;/p&gt;&lt;p&gt;Battery - 3000mAh&lt;/p&gt;&lt;p&gt;Price - 98,000&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Apple A13 4G phone</t>
+  </si>
+  <si>
+    <t>Boat Earbuds</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Brand - BoAt&lt;/p&gt;&lt;p&gt;Model Name - Airdropes 121v3&lt;/p&gt;&lt;p&gt;Connector - Wireless&lt;/p&gt;&lt;p&gt;StandBy - 24 Hours&lt;/p&gt;&lt;p&gt;Bluetooth Range - 10M&lt;/p&gt;&lt;p&gt;Price -1,299&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>add_product</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>upc</t>
+  </si>
+  <si>
+    <t>ean</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>mpn</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>stock_status</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>price_extra_type</t>
+  </si>
+  <si>
+    <t>price_extra</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>tax_class</t>
+  </si>
+  <si>
+    <t>date_available</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>weight_class</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>length_class</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>sort_order</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>2-3 Days</t>
+  </si>
+  <si>
+    <t>http://192.168.1.7/opencart-3.0.3.8/image/catalog/Seller_3/960x0-20220905133910.jpg</t>
+  </si>
+  <si>
+    <t>2022-09-05</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Centimeter</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>http://192.168.1.7/opencart-3.0.3.8/image/catalog/Seller_3/oneplus 10 pro-20220906094103.jpg</t>
+  </si>
+  <si>
+    <t>2022-09-06</t>
+  </si>
+  <si>
+    <t>http://192.168.1.7/opencart-3.0.3.8/image/catalog/Seller_3/Boat rockerz 450-20220906093855.jpg</t>
+  </si>
+  <si>
+    <t>http://192.168.1.7/opencart-3.0.3.8/image/catalog/Seller_3/apple 4g-20220906093824.jpg</t>
+  </si>
+  <si>
+    <t>http://192.168.1.7/opencart-3.0.3.8/image/catalog/Seller_3/AD-121v2-FI-3_1b3f567a-640b-419d-9b9d-83c8aae58ee8_1500x-20220906093645.jpg</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>related</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>recurring</t>
+  </si>
+  <si>
+    <t>customer_group</t>
+  </si>
+  <si>
+    <t>product_discount_id</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>date_start</t>
+  </si>
+  <si>
+    <t>date_end</t>
+  </si>
+  <si>
+    <t>product_special_id</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>product_image_id</t>
+  </si>
+  <si>
+    <t>http://192.168.1.7/opencart-3.0.3.8/image/catalog/Seller_3/bigstock-Side-View-Of-Hacker-Using-Comp-253465240-20220905134011.jpg</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>dell_50_1</t>
+  </si>
+  <si>
+    <t>oneplus_10_pro_51_1</t>
+  </si>
+  <si>
+    <t>boat_rockerz_450_bluetooth_earphone_52_1</t>
+  </si>
+  <si>
+    <t>apple_a13_4g_53_1</t>
+  </si>
+  <si>
+    <t>boat_earbuds_54_1</t>
+  </si>
+  <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>option_value</t>
+  </si>
+  <si>
+    <t>price_prefix</t>
+  </si>
+  <si>
+    <t>points_prefix</t>
+  </si>
+  <si>
+    <t>weight_prefix</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="800080"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -339,13 +699,1495 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8" customWidth="true" style="2"/>
+    <col min="3" max="3" width="15" customWidth="true" style="2"/>
+    <col min="4" max="4" width="7" customWidth="true" style="2"/>
+    <col min="5" max="5" width="14" customWidth="true" style="2"/>
+    <col min="6" max="6" width="20" customWidth="true" style="2"/>
+    <col min="7" max="7" width="16" customWidth="true" style="2"/>
+    <col min="8" max="8" width="15" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8" customWidth="true" style="2"/>
+    <col min="3" max="3" width="8" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9" customWidth="true" style="2"/>
+    <col min="5" max="5" width="12" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12" customWidth="true" style="0"/>
+    <col min="6" max="6" width="9" customWidth="true" style="0"/>
+    <col min="7" max="7" width="16" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10" customWidth="true" style="0"/>
+    <col min="9" max="9" width="17" customWidth="true" style="0"/>
+    <col min="10" max="10" width="10" customWidth="true" style="0"/>
+    <col min="11" max="11" width="17" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:AF6"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="true" style="0"/>
+    <col min="2" max="2" width="14" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9" customWidth="true" style="0"/>
+    <col min="4" max="4" width="7" customWidth="true" style="0"/>
+    <col min="5" max="5" width="7" customWidth="true" style="0"/>
+    <col min="6" max="6" width="7" customWidth="true" style="0"/>
+    <col min="7" max="7" width="7" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8" customWidth="true" style="0"/>
+    <col min="9" max="9" width="7" customWidth="true" style="0"/>
+    <col min="10" max="10" width="12" customWidth="true" style="0"/>
+    <col min="11" max="11" width="12" customWidth="true" style="0"/>
+    <col min="12" max="12" width="16" customWidth="true" style="0"/>
+    <col min="13" max="13" width="9" customWidth="true" style="0"/>
+    <col min="14" max="14" width="16" customWidth="true" style="0"/>
+    <col min="15" max="15" width="12" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20" customWidth="true" style="0"/>
+    <col min="18" max="18" width="15" customWidth="true" style="0"/>
+    <col min="19" max="19" width="10" customWidth="true" style="0"/>
+    <col min="20" max="20" width="13" customWidth="true" style="0"/>
+    <col min="21" max="21" width="18" customWidth="true" style="2"/>
+    <col min="22" max="22" width="10" customWidth="true" style="0"/>
+    <col min="23" max="23" width="16" customWidth="true" style="0"/>
+    <col min="24" max="24" width="10" customWidth="true" style="0"/>
+    <col min="25" max="25" width="9" customWidth="true" style="0"/>
+    <col min="26" max="26" width="10" customWidth="true" style="0"/>
+    <col min="27" max="27" width="16" customWidth="true" style="0"/>
+    <col min="28" max="28" width="12" customWidth="true" style="0"/>
+    <col min="29" max="29" width="11" customWidth="true" style="0"/>
+    <col min="30" max="30" width="14" customWidth="true" style="0"/>
+    <col min="31" max="31" width="10" customWidth="true" style="0"/>
+    <col min="32" max="32" width="9" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2"/>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>12121</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2"/>
+      <c r="U2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3"/>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+      <c r="Q3"/>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3"/>
+      <c r="U3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3"/>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4"/>
+      <c r="B4">
+        <v>52</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4"/>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4"/>
+      <c r="U4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF4"/>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5"/>
+      <c r="B5">
+        <v>53</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>98</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF5"/>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6"/>
+      <c r="B6">
+        <v>54</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6"/>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF6"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12" customWidth="true" style="2"/>
+    <col min="3" max="3" width="12" customWidth="true" style="2"/>
+    <col min="4" max="4" width="10" customWidth="true" style="2"/>
+    <col min="5" max="5" width="11" customWidth="true" style="2"/>
+    <col min="6" max="6" width="9" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8" customWidth="true" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="true" style="0"/>
+    <col min="2" max="2" width="14" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12" customWidth="true" style="0"/>
+    <col min="6" max="6" width="9" customWidth="true" style="0"/>
+    <col min="7" max="7" width="14" customWidth="true" style="2"/>
+    <col min="8" max="8" width="12" customWidth="true" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="true" style="0"/>
+    <col min="2" max="2" width="14" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9" customWidth="true" style="0"/>
+    <col min="6" max="6" width="14" customWidth="true" style="2"/>
+    <col min="7" max="7" width="12" customWidth="true" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>452</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="14" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9" customWidth="true" style="0"/>
+    <col min="4" max="4" width="14" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2397</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/system/library/purpletree_multivendor/export/PurpletreePoductExport.xlsx
+++ b/system/library/purpletree_multivendor/export/PurpletreePoductExport.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>product_id</t>
   </si>
@@ -50,9 +50,6 @@
     <t>meta_keyword</t>
   </si>
   <si>
-    <t>is_approved</t>
-  </si>
-  <si>
     <t>Dell</t>
   </si>
   <si>
@@ -65,144 +62,132 @@
     <t>Dynamic-link library is Microsoft's implementation of the shared library concept in the Microsoft Windows and OS/2 operating systems. These libraries usually have the file extension DLL, OCX, or DRV. Wikipedia</t>
   </si>
   <si>
+    <t xml:space="preserve">realme Watch 3 </t>
+  </si>
+  <si>
+    <t>1.8 inch Curved Glass Touch Display with Bluetooth Calling
+Upto 7 days of battery life - 100% charge in 2.5 hrs| Built-in high performance mic and speakers for loud and clear calls
+Premium looking High Screen to Body Ratio design | IP68 Water and dust resistant| 100+ Watch Faces | 110+ Sports Mode
+realme Link App for comprehensive health tracking - real-time Heart Rate, SpO2, Sleep monitoring and many more
+With Call Function
+Touchscreen
+Fitness &amp; Outdoor
+Battery Runtime: Upto 7 days</t>
+  </si>
+  <si>
+    <t>realmewatche</t>
+  </si>
+  <si>
+    <t>realme watch</t>
+  </si>
+  <si>
+    <t>1.8 inch Curved Glass Touch Display with Bluetooth Calling
+Upto 7 days of battery life - 100% charge in 2.5 hrs| Built-in high performance mic and speakers for loud and clear calls
+Premium looking High Screen to Body Ratio design | IP68 Water and dust r</t>
+  </si>
+  <si>
+    <t>add_product</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>upc</t>
+  </si>
+  <si>
+    <t>ean</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>mpn</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>stock_status</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>price_extra_type</t>
+  </si>
+  <si>
+    <t>price_extra</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>tax_class</t>
+  </si>
+  <si>
+    <t>date_available</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>weight_class</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>length_class</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>sort_order</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>2-3 Days</t>
+  </si>
+  <si>
+    <t>http://localhost/opencart-3.0.3.8/image/catalog/Seller_3/960x0-20220905133910.jpg</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Oneplus 10 pro</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Technology -GSM-CDMA-LTE-5G&lt;/p&gt;&lt;p&gt;Sim-Dual sim&lt;/p&gt;&lt;p&gt; MEMORY -12 GB RAM,256 ROM&lt;/p&gt;&lt;p&gt;GPU- Andreno 730&lt;/p&gt;&lt;p&gt;battery - 5500&lt;/p&gt;&lt;p&gt;price -60,000&lt;/p&gt;&lt;p&gt;CAMERA - 20 MP front,48 MP Back with 6 MP ultra mode,4 MP macro&amp;nbsp;&lt;/p&gt;&lt;p&gt;LED Display&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Android mobile</t>
-  </si>
-  <si>
-    <t>Oneplus 10 pro mobile</t>
-  </si>
-  <si>
-    <t>Boat Rockerz 450 Bluetooth Earphone</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Standby Time - 200 hour&lt;/p&gt;&lt;p&gt;Driver size -35mm&lt;/p&gt;&lt;p&gt;Headphone type - Ear&lt;/p&gt;&lt;p&gt;Bluetooth range - 15M&lt;/p&gt;&lt;p&gt;Bluetooth Version - V4.3&lt;/p&gt;&lt;p&gt;Frequency Response - 25Hz -25KHz&lt;/p&gt;&lt;p&gt;Price -1,599&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Boat rockerz 450 Bluetooth Earphone</t>
-  </si>
-  <si>
-    <t>Apple A13 4G</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Processor - Bionic&lt;/p&gt;&lt;p&gt;OS - iOS v12.0&lt;/p&gt;&lt;p&gt;Camera -12 +10+10 MP Real Camera , 10 MP Front Camera&lt;/p&gt;&lt;p&gt;5.6 Inch OLED display&lt;/p&gt;&lt;p&gt;RAM- 6 GB&lt;/p&gt;&lt;p&gt;ROM - 64 GB&lt;/p&gt;&lt;p&gt;Battery - 3000mAh&lt;/p&gt;&lt;p&gt;Price - 98,000&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Apple A13 4G phone</t>
-  </si>
-  <si>
-    <t>Boat Earbuds</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Brand - BoAt&lt;/p&gt;&lt;p&gt;Model Name - Airdropes 121v3&lt;/p&gt;&lt;p&gt;Connector - Wireless&lt;/p&gt;&lt;p&gt;StandBy - 24 Hours&lt;/p&gt;&lt;p&gt;Bluetooth Range - 10M&lt;/p&gt;&lt;p&gt;Price -1,299&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>add_product</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>sku</t>
-  </si>
-  <si>
-    <t>upc</t>
-  </si>
-  <si>
-    <t>ean</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>isbn</t>
-  </si>
-  <si>
-    <t>mpn</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>stock_status</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>shipping</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>price_extra_type</t>
-  </si>
-  <si>
-    <t>price_extra</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>tax_class</t>
-  </si>
-  <si>
-    <t>date_available</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>weight_class</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>length_class</t>
-  </si>
-  <si>
-    <t>subtract</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>sort_order</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>metal</t>
-  </si>
-  <si>
-    <t>2-3 Days</t>
-  </si>
-  <si>
-    <t>http://192.168.1.7/opencart-3.0.3.8/image/catalog/Seller_3/960x0-20220905133910.jpg</t>
-  </si>
-  <si>
     <t>2022-09-05</t>
   </si>
   <si>
@@ -215,19 +200,16 @@
     <t>Enabled</t>
   </si>
   <si>
-    <t>http://192.168.1.7/opencart-3.0.3.8/image/catalog/Seller_3/oneplus 10 pro-20220906094103.jpg</t>
-  </si>
-  <si>
-    <t>2022-09-06</t>
-  </si>
-  <si>
-    <t>http://192.168.1.7/opencart-3.0.3.8/image/catalog/Seller_3/Boat rockerz 450-20220906093855.jpg</t>
-  </si>
-  <si>
-    <t>http://192.168.1.7/opencart-3.0.3.8/image/catalog/Seller_3/apple 4g-20220906093824.jpg</t>
-  </si>
-  <si>
-    <t>http://192.168.1.7/opencart-3.0.3.8/image/catalog/Seller_3/AD-121v2-FI-3_1b3f567a-640b-419d-9b9d-83c8aae58ee8_1500x-20220906093645.jpg</t>
+    <t xml:space="preserve"> RMW2108</t>
+  </si>
+  <si>
+    <t>kolkata</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>2022-09-22</t>
   </si>
   <si>
     <t>download</t>
@@ -281,7 +263,7 @@
     <t>product_image_id</t>
   </si>
   <si>
-    <t>http://192.168.1.7/opencart-3.0.3.8/image/catalog/Seller_3/bigstock-Side-View-Of-Hacker-Using-Comp-253465240-20220905134011.jpg</t>
+    <t>http://localhost/opencart-3.0.3.8/image/catalog/Seller_3/bigstock-Side-View-Of-Hacker-Using-Comp-253465240-20220905134011.jpg</t>
   </si>
   <si>
     <t>keyword</t>
@@ -290,16 +272,7 @@
     <t>dell_50_1</t>
   </si>
   <si>
-    <t>oneplus_10_pro_51_1</t>
-  </si>
-  <si>
-    <t>boat_rockerz_450_bluetooth_earphone_52_1</t>
-  </si>
-  <si>
-    <t>apple_a13_4g_53_1</t>
-  </si>
-  <si>
-    <t>boat_earbuds_54_1</t>
+    <t>realme_watch_3_64_1</t>
   </si>
   <si>
     <t>layout</t>
@@ -703,7 +676,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -721,10 +694,9 @@
     <col min="5" max="5" width="14" customWidth="true" style="2"/>
     <col min="6" max="6" width="20" customWidth="true" style="2"/>
     <col min="7" max="7" width="16" customWidth="true" style="2"/>
-    <col min="8" max="8" width="15" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customHeight="1" ht="25">
+    <row r="1" spans="1:7" customHeight="1" ht="25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,138 +718,51 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>53</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -901,7 +786,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -922,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -933,54 +818,21 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1025,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1078,13 +930,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1137,34 +989,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +1040,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1235,100 +1087,100 @@
   <sheetData>
     <row r="1" spans="1:32" customHeight="1" ht="25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -1348,14 +1200,14 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N2"/>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="P2">
         <v>12121</v>
@@ -1369,13 +1221,13 @@
       </c>
       <c r="T2"/>
       <c r="U2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1387,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AB2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -1399,38 +1251,40 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AF2"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3"/>
       <c r="B3">
-        <v>51</v>
-      </c>
-      <c r="C3"/>
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3"/>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
       <c r="K3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>56</v>
       </c>
-      <c r="M3" t="s">
-        <v>62</v>
-      </c>
+      <c r="M3"/>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="P3">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="Q3"/>
       <c r="R3">
@@ -1441,13 +1295,13 @@
       </c>
       <c r="T3"/>
       <c r="U3" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1459,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AB3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -1471,225 +1325,9 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AF3"/>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4"/>
-      <c r="B4">
-        <v>52</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4"/>
-      <c r="O4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4"/>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4"/>
-      <c r="U4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF4"/>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5"/>
-      <c r="B5">
-        <v>53</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5"/>
-      <c r="O5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5">
-        <v>98</v>
-      </c>
-      <c r="Q5"/>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5"/>
-      <c r="U5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>59</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF5"/>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6"/>
-      <c r="B6">
-        <v>54</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6"/>
-      <c r="O6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6"/>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6"/>
-      <c r="U6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
-        <v>59</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1712,7 +1350,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1736,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1760,55 +1398,19 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>53</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1853,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1901,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1951,28 +1553,28 @@
   <sheetData>
     <row r="1" spans="1:8" customHeight="1" ht="25">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2018,36 +1620,36 @@
   <sheetData>
     <row r="1" spans="1:7" customHeight="1" ht="25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2056,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2102,27 +1704,27 @@
   <sheetData>
     <row r="1" spans="1:4" customHeight="1" ht="25">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2170,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
